--- a/output/StructureDefinition-veterinarian.xlsx
+++ b/output/StructureDefinition-veterinarian.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-11T13:23:42+02:00</t>
+    <t>2023-07-11T14:45:02+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-veterinarian.xlsx
+++ b/output/StructureDefinition-veterinarian.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-11T17:34:16+02:00</t>
+    <t>2023-07-13T10:52:26+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-veterinarian.xlsx
+++ b/output/StructureDefinition-veterinarian.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-13T10:52:26+02:00</t>
+    <t>2023-07-13T11:08:06+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-veterinarian.xlsx
+++ b/output/StructureDefinition-veterinarian.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-13T11:08:06+02:00</t>
+    <t>2023-07-13T11:12:35+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-veterinarian.xlsx
+++ b/output/StructureDefinition-veterinarian.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-13T11:12:35+02:00</t>
+    <t>2023-07-13T12:25:01+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-veterinarian.xlsx
+++ b/output/StructureDefinition-veterinarian.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-13T12:25:01+02:00</t>
+    <t>2023-07-17T09:25:48+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-veterinarian.xlsx
+++ b/output/StructureDefinition-veterinarian.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-17T09:25:48+02:00</t>
+    <t>2023-07-17T09:30:42+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-veterinarian.xlsx
+++ b/output/StructureDefinition-veterinarian.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-17T09:30:42+02:00</t>
+    <t>2023-07-17T09:56:27+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-veterinarian.xlsx
+++ b/output/StructureDefinition-veterinarian.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-17T09:56:27+02:00</t>
+    <t>2023-07-17T16:21:50+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-veterinarian.xlsx
+++ b/output/StructureDefinition-veterinarian.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-17T16:21:50+02:00</t>
+    <t>2023-07-17T17:08:31+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-veterinarian.xlsx
+++ b/output/StructureDefinition-veterinarian.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-17T17:08:31+02:00</t>
+    <t>2023-07-17T17:22:35+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-veterinarian.xlsx
+++ b/output/StructureDefinition-veterinarian.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-17T17:22:35+02:00</t>
+    <t>2023-07-18T09:29:43+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-veterinarian.xlsx
+++ b/output/StructureDefinition-veterinarian.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-18T09:29:43+02:00</t>
+    <t>2023-07-18T12:13:58+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/output/StructureDefinition-veterinarian.xlsx
+++ b/output/StructureDefinition-veterinarian.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-07-18T12:13:58+02:00</t>
+    <t>2023-07-18T13:14:18+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
